--- a/BaseWeb/a.xlsx
+++ b/BaseWeb/a.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebBase\BaseWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF76D5FA-B9D6-486E-9F8F-5E2F28579EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF276A6D-EBCD-4428-803C-A2F26D18F297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="17" activeTab="25" xr2:uid="{95D82319-EE5C-4ABE-A3E5-4AE4BAEECEF6}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="1" xr2:uid="{95D82319-EE5C-4ABE-A3E5-4AE4BAEECEF6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Readme" sheetId="2" r:id="rId1"/>
+    <sheet name="Readme" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="DBKL001" sheetId="1" r:id="rId2"/>
     <sheet name="DBKL002" sheetId="3" r:id="rId3"/>
     <sheet name="MPKJ001" sheetId="4" r:id="rId4"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="257">
   <si>
     <t>Billboard Art Work design</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>Advance Deposit for Beginning Runner Job RM200</t>
+  </si>
+  <si>
+    <t>Doc Count</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1345,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1592,7 +1595,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1622,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1870,7 +1873,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,7 +1900,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,7 +2122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3C4A4D-8B3D-49DB-97DC-62881E6A1E90}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2142,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2309,7 +2314,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2475,7 +2480,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,7 +2507,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2781,7 +2786,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,7 +2816,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2922,7 +2927,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,7 +2957,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3049,7 +3054,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,7 +3078,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3212,7 +3217,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,7 +3247,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3339,8 +3344,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,7 +3378,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3388,9 +3393,6 @@
       </c>
       <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3521,7 +3523,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,7 +3550,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3645,7 +3647,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3669,7 +3671,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3738,7 +3740,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,7 +3770,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3865,7 +3867,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3889,7 +3891,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4014,7 +4016,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4041,7 +4043,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4152,7 +4154,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4176,7 +4178,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4328,8 +4330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DC71E4-4E93-4F59-B98D-CE57BAD55027}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4359,7 +4361,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4501,7 +4503,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4668,7 +4670,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4950,7 +4952,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5118,7 +5120,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5148,7 +5150,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5398,7 +5400,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5663,7 +5665,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5690,7 +5692,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5941,7 +5943,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5968,7 +5970,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
